--- a/06-최종산출물/api 정의서v0.2.xlsx
+++ b/06-최종산출물/api 정의서v0.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIN10\Desktop\KSA-final-project\06-최종산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2039C8-9BB9-4491-BF2A-8D6B92A5EAE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C46D28-C115-4B26-A892-FE13230E0BA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="224">
   <si>
     <t>Header</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t xml:space="preserve">post </t>
-  </si>
-  <si>
-    <t>Footer</t>
   </si>
   <si>
     <t>Admin Main</t>
@@ -170,10 +167,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>getCustomChallengeProcess</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>adminLogin</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -263,10 +256,6 @@
   </si>
   <si>
     <t>/challenge/getcustomchallenge?id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/challenge/getcustomchallengeprocess</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -676,83 +665,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">[
- {
-  Long messageId : 2,
-  String callerName :  uhmjunsik22,
-  String receiverName : ralo22,
-  String title : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>커스텀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>챌린지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>초대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>,
-  date date : 2022-03-10-15-33,
-  }
-]</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">int 1 = </t>
     </r>
     <r>
@@ -1399,103 +1311,6 @@
         <scheme val="major"/>
       </rPr>
       <t>요청</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> {
-  Long messageId : 2,
-  String callerName :  uhmjunsik22,
-  String receiverName : ralo22,
-  String title : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>커스텀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>챌린지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>초대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">,
-  String content : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>초대입니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>,
-  date date : 2022-03-10-15-33,
-  }</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3589,146 +3404,6 @@
   </si>
   <si>
     <r>
-      <t>{
- Long userId: 22, 
- String challengeName: 30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>참기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">,
- date startDate: 2022-03-12-06-00,
- date endDate: 2022-4-12-06-00,
- String punishment: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>소고기사기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">,
- String description: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>한달</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>완전금연</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>챌린지입니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>,
- String CustomImg: ../img/customchallenge/img/154.png
-}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -3898,61 +3573,6 @@
         <scheme val="major"/>
       </rPr>
       <t>초대</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>커스텀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>챌린지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>진행도</t>
     </r>
   </si>
   <si>
@@ -5365,12 +4985,924 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>{
+ Long userId: 22, 
+ String challengeName: 30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">,
+ date startDate: 2022-03-12-06-00,
+ date endDate: 2022-4-12-06-00,
+ String punishment: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소고기사기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">,
+ String description: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한달</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완전금연</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챌린지입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>,
+ String CustomImg: ../img/customchallenge/img/154.png
+}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+ Long userId: 22, 
+ Long customChallengeId : 125
+ String challengeName: 30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">,
+ date startDate: 2022-03-12-06-00,
+ date endDate: 2022-4-12-06-00,
+ String punishment: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소고기사기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">,
+ String description: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한달</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완전금연</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챌린지입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>,
+ String CustomImg: ../img/customchallenge/img/154.png
+}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[
+ {
+  Long messageId : 2,
+  String callerName :  uhmjunsik22,
+  String receiverName : ralo22,
+  String title : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>커스텀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>,
+  date date : 2022-03-10-15-33,
+  }
+]</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> {
+  Long messageId : 2,
+  String callerName :  uhmjunsik22,
+  String receiverName : ralo22,
+  String title : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>커스텀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">,
+  String content : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초대입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>,
+  Long customChallengeId : 125
+  date date : 2022-03-10-15-33,
+  }</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> {
+  Long customChallengeId : 125,
+  String callerName :  uhmjunsik22,
+  String receiverName : ralo22,
+  String title : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>커스텀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">,
+  String content : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초대입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>,
+  date date : 2022-03-10-15-33,
+  }</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">int 1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> , int 2 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">int 1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> , int 2 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실패</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ String userName: uhmjunsik22,
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>getChallengeUserInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/challenge/getchallengeuserinfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>커스텀 챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>참가자 검색</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ String userName : uhmjunsik22
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+ {
+   String userName : uhmjunsik22,
+   String profileImg: ../img/user/profileimg/user2.png,
+ }
+]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>getChallengeChat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/challenge/getchallengechat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ String userName : uhmjunsik22,
+ Long customChallengeId : 125
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>커스텀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>채팅방</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>내용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>postChallengeChat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/challenge/postchallengechat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>커스텀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>채팅 생성</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+ String userName : uhmjunsik22,
+ Long customChallengeId : 125,
+ String content : ㅋㅋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개힘드노</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>,
+ date date : 2022-03-11-17-28
+}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[
+ {
+  String userName : uhmjunsik22,
+  Long customChallengeId : 125,
+  String content : ㅋㅋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개힘드노</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>,
+  date date : 2022-03-11-17-28
+ }
+]</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Footer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -5459,6 +5991,42 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -5812,7 +6380,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5849,30 +6417,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5888,10 +6437,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5917,16 +6462,10 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5941,40 +6480,15 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5987,6 +6501,69 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6207,10 +6784,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N960"/>
+  <dimension ref="A1:N962"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6230,1387 +6807,1447 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="E1" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="H1" s="61"/>
+      <c r="I1" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="46"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="22"/>
+    </row>
+    <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="48"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="22"/>
+    </row>
+    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="48"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="22"/>
+    </row>
+    <row r="6" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="48"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="22"/>
+    </row>
+    <row r="7" spans="1:14" ht="242.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F7" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K7" s="20"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A8" s="48"/>
+      <c r="B8" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="F8" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="K8" s="22"/>
+    </row>
+    <row r="9" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A9" s="48"/>
+      <c r="B9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18" t="s">
+      <c r="F9" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" s="22"/>
+    </row>
+    <row r="10" spans="1:14" s="3" customFormat="1" ht="130.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="48"/>
+      <c r="B10" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="29"/>
-    </row>
-    <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="29"/>
-    </row>
-    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="29"/>
-    </row>
-    <row r="6" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="29"/>
-    </row>
-    <row r="7" spans="1:14" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="K7" s="27"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" ht="57" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
-      <c r="B8" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="K8" s="29"/>
-    </row>
-    <row r="9" spans="1:14" ht="57" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
-      <c r="B9" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="K9" s="29"/>
-    </row>
-    <row r="10" spans="1:14" s="3" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
-      <c r="B10" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>116</v>
+      <c r="F10" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>205</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="K10" s="29"/>
-    </row>
-    <row r="11" spans="1:14" ht="114" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
-      <c r="B11" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>114</v>
+        <v>200</v>
+      </c>
+      <c r="K10" s="22"/>
+    </row>
+    <row r="11" spans="1:14" ht="132.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="48"/>
+      <c r="B11" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>111</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>120</v>
+        <v>145</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>117</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="K11" s="22"/>
+    </row>
+    <row r="12" spans="1:14" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="I12" s="20"/>
+      <c r="J12" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="1:14" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="22"/>
+      <c r="J13" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K13" s="22"/>
+    </row>
+    <row r="14" spans="1:14" ht="114" x14ac:dyDescent="0.2">
+      <c r="A14" s="54"/>
+      <c r="B14" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="22"/>
+      <c r="J14" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="22"/>
+    </row>
+    <row r="15" spans="1:14" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="54"/>
+      <c r="B15" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="K11" s="29"/>
-    </row>
-    <row r="12" spans="1:14" ht="199.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="27" t="s">
+      <c r="F15" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K15" s="22"/>
+    </row>
+    <row r="16" spans="1:14" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="54"/>
+      <c r="B16" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="F12" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="K12" s="29"/>
-    </row>
-    <row r="13" spans="1:14" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="40" t="s">
+      <c r="F16" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="K13" s="29"/>
-    </row>
-    <row r="14" spans="1:14" ht="114" x14ac:dyDescent="0.2">
-      <c r="A14" s="43"/>
-      <c r="B14" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="F14" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="K14" s="29"/>
-    </row>
-    <row r="15" spans="1:14" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="43"/>
-      <c r="B15" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" s="8" t="s">
+      <c r="H16" s="36" t="s">
         <v>106</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="K15" s="29"/>
-    </row>
-    <row r="16" spans="1:14" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="43"/>
-      <c r="B16" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="F16" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="H16" s="47" t="s">
-        <v>109</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K16" s="10"/>
     </row>
     <row r="17" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="48"/>
-      <c r="B17" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>91</v>
+      <c r="A17" s="55"/>
+      <c r="B17" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="H17" s="34"/>
+        <v>152</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="25"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" ht="228" x14ac:dyDescent="0.2">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>127</v>
+      <c r="B18" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>124</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>159</v>
+        <v>153</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>154</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K18" s="11"/>
     </row>
     <row r="19" spans="1:11" ht="114" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
-      <c r="B19" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>114</v>
+      <c r="A19" s="48"/>
+      <c r="B19" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>111</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="H19" s="38" t="s">
-        <v>116</v>
+        <v>155</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>113</v>
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="K19" s="15"/>
+    </row>
+    <row r="20" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="48"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+    </row>
+    <row r="21" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="48"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+    </row>
+    <row r="22" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="37"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="K22" s="22"/>
+    </row>
+    <row r="23" spans="1:11" ht="228" x14ac:dyDescent="0.2">
+      <c r="A23" s="48"/>
+      <c r="B23" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" s="22"/>
+      <c r="J23" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="K23" s="22"/>
+    </row>
+    <row r="24" spans="1:11" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="48"/>
+      <c r="B24" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="K19" s="15"/>
-    </row>
-    <row r="20" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-    </row>
-    <row r="21" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-    </row>
-    <row r="22" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="25" t="s">
+      <c r="F24" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="I24" s="22"/>
+      <c r="J24" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K24" s="22"/>
+    </row>
+    <row r="25" spans="1:11" ht="228" x14ac:dyDescent="0.2">
+      <c r="A25" s="48"/>
+      <c r="B25" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="I25" s="22"/>
+      <c r="J25" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K25" s="22"/>
+    </row>
+    <row r="26" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="48"/>
+      <c r="B26" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I26" s="22"/>
+      <c r="J26" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K26" s="22"/>
+    </row>
+    <row r="27" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="48"/>
+      <c r="B27" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27" s="22"/>
+      <c r="J27" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="K27" s="22"/>
+    </row>
+    <row r="28" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="48"/>
+      <c r="B28" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="I28" s="22"/>
+      <c r="J28" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="K28" s="22"/>
+    </row>
+    <row r="29" spans="1:11" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="K29" s="22"/>
+    </row>
+    <row r="30" spans="1:11" ht="228" x14ac:dyDescent="0.2">
+      <c r="A30" s="48"/>
+      <c r="B30" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30" s="22"/>
+      <c r="J30" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="K30" s="22"/>
+    </row>
+    <row r="31" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A31" s="48"/>
+      <c r="B31" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C31" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I31" s="22"/>
+      <c r="J31" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K31" s="22"/>
+    </row>
+    <row r="32" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="48"/>
+      <c r="B32" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="I32" s="22"/>
+      <c r="J32" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K32" s="22"/>
+    </row>
+    <row r="33" spans="1:14" ht="135" x14ac:dyDescent="0.2">
+      <c r="A33" s="48"/>
+      <c r="B33" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="I33" s="22"/>
+      <c r="J33" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K33" s="22"/>
+    </row>
+    <row r="34" spans="1:14" ht="149.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="48"/>
+      <c r="B34" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="H22" s="51"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="K22" s="29"/>
-    </row>
-    <row r="23" spans="1:11" ht="228" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="41" t="s">
+      <c r="D34" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H34" s="8"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="K34" s="22"/>
+    </row>
+    <row r="35" spans="1:14" ht="118.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="48"/>
+      <c r="B35" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="K35" s="22"/>
+    </row>
+    <row r="36" spans="1:14" s="3" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="48"/>
+      <c r="B36" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="C36" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="K23" s="29"/>
-    </row>
-    <row r="24" spans="1:11" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
-      <c r="B24" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="41" t="s">
+      <c r="D36" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="E36" s="65" t="s">
+        <v>208</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="I36" s="22"/>
+      <c r="J36" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="K36" s="22"/>
+    </row>
+    <row r="37" spans="1:14" s="3" customFormat="1" ht="87.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="48"/>
+      <c r="B37" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="E37" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="I37" s="22"/>
+      <c r="J37" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="K37" s="22"/>
+    </row>
+    <row r="38" spans="1:14" ht="116.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="50"/>
+      <c r="B38" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="E38" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="I38" s="22"/>
+      <c r="J38" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="K38" s="22"/>
+    </row>
+    <row r="39" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="B39" s="18"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+    </row>
+    <row r="40" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="48"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+    </row>
+    <row r="41" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="48"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+    </row>
+    <row r="42" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="48"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+    </row>
+    <row r="43" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="18"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+    </row>
+    <row r="44" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A44" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="F24" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="K24" s="29"/>
-    </row>
-    <row r="25" spans="1:11" ht="228" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
-      <c r="B25" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="41" t="s">
+      <c r="D44" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G44" s="20"/>
+      <c r="H44" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I44" s="22"/>
+      <c r="J44" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="K44" s="22"/>
+    </row>
+    <row r="45" spans="1:14" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G45" s="22"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="K45" s="22"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="1:14" ht="228" x14ac:dyDescent="0.2">
+      <c r="A46" s="57"/>
+      <c r="B46" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G46" s="22"/>
+      <c r="H46" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I46" s="8"/>
+      <c r="J46" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="K46" s="22"/>
+    </row>
+    <row r="47" spans="1:14" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="57"/>
+      <c r="B47" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G47" s="22"/>
+      <c r="H47" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="I47" s="40"/>
+      <c r="J47" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K47" s="22"/>
+    </row>
+    <row r="48" spans="1:14" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="57"/>
+      <c r="B48" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="K25" s="29"/>
-    </row>
-    <row r="26" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="30"/>
-      <c r="B26" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="41" t="s">
+      <c r="D48" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G48" s="22"/>
+      <c r="H48" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="I48" s="40"/>
+      <c r="J48" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K48" s="22"/>
+    </row>
+    <row r="49" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="58"/>
+      <c r="B49" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="F26" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="I26" s="29"/>
-      <c r="J26" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="K26" s="29"/>
-    </row>
-    <row r="27" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="30"/>
-      <c r="B27" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="F27" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="G27" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I27" s="29"/>
-      <c r="J27" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="K27" s="29"/>
-    </row>
-    <row r="28" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="30"/>
-      <c r="B28" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="F28" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="G28" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="I28" s="29"/>
-      <c r="J28" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="K28" s="29"/>
-    </row>
-    <row r="29" spans="1:11" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="F29" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="G29" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K29" s="29"/>
-    </row>
-    <row r="30" spans="1:11" ht="228" x14ac:dyDescent="0.2">
-      <c r="A30" s="30"/>
-      <c r="B30" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="F30" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="G30" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I30" s="29"/>
-      <c r="J30" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="K30" s="29"/>
-    </row>
-    <row r="31" spans="1:11" ht="57" x14ac:dyDescent="0.2">
-      <c r="A31" s="30"/>
-      <c r="B31" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="F31" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="G31" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="I31" s="29"/>
-      <c r="J31" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="K31" s="29"/>
-    </row>
-    <row r="32" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="30"/>
-      <c r="B32" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="F32" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="G32" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="I32" s="29"/>
-      <c r="J32" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="K32" s="29"/>
-    </row>
-    <row r="33" spans="1:14" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="30"/>
-      <c r="B33" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="F33" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="G33" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="I33" s="29"/>
-      <c r="J33" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="K33" s="29"/>
-    </row>
-    <row r="34" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="30"/>
-      <c r="B34" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="F34" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="G34" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-    </row>
-    <row r="35" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="30"/>
-      <c r="B35" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="F35" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="G35" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-    </row>
-    <row r="36" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="53"/>
-      <c r="B36" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="F36" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="G36" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-    </row>
-    <row r="37" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-    </row>
-    <row r="38" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="30"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-    </row>
-    <row r="39" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="30"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-    </row>
-    <row r="40" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="30"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-    </row>
-    <row r="41" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-    </row>
-    <row r="42" spans="1:14" ht="57" x14ac:dyDescent="0.2">
-      <c r="A42" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="F42" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="G42" s="27"/>
-      <c r="H42" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I42" s="29"/>
-      <c r="J42" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="K42" s="29"/>
-    </row>
-    <row r="43" spans="1:14" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="8" t="s">
+      <c r="D49" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E49" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="F43" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="G43" s="29"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="K43" s="29"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="1:14" ht="228" x14ac:dyDescent="0.2">
-      <c r="A44" s="58"/>
-      <c r="B44" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="C44" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="F44" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="G44" s="29"/>
-      <c r="H44" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="I44" s="8"/>
-      <c r="J44" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="K44" s="29"/>
-    </row>
-    <row r="45" spans="1:14" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="58"/>
-      <c r="B45" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="F45" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="G45" s="29"/>
-      <c r="H45" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="I45" s="59"/>
-      <c r="J45" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="K45" s="29"/>
-    </row>
-    <row r="46" spans="1:14" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="58"/>
-      <c r="B46" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="F46" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="G46" s="29"/>
-      <c r="H46" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="I46" s="59"/>
-      <c r="J46" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="K46" s="29"/>
-    </row>
-    <row r="47" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="60"/>
-      <c r="B47" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="F47" s="32"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I47" s="9"/>
-      <c r="J47" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="K47" s="29"/>
-    </row>
-    <row r="48" spans="1:14" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="B48" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="F48" s="32"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="K48" s="29"/>
-    </row>
-    <row r="49" spans="1:11" ht="228" x14ac:dyDescent="0.2">
-      <c r="A49" s="58"/>
-      <c r="B49" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C49" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="D49" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="F49" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="G49" s="29"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="22"/>
       <c r="H49" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="I49" s="27"/>
-      <c r="J49" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="K49" s="29"/>
-    </row>
-    <row r="50" spans="1:11" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="58"/>
-      <c r="B50" s="25" t="s">
+      <c r="I49" s="9"/>
+      <c r="J49" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K49" s="22"/>
+    </row>
+    <row r="50" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F50" s="23"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="K50" s="22"/>
+    </row>
+    <row r="51" spans="1:11" ht="228" x14ac:dyDescent="0.2">
+      <c r="A51" s="57"/>
+      <c r="B51" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G51" s="22"/>
+      <c r="H51" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I51" s="20"/>
+      <c r="J51" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="K51" s="22"/>
+    </row>
+    <row r="52" spans="1:11" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="57"/>
+      <c r="B52" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G52" s="22"/>
+      <c r="H52" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I52" s="20"/>
+      <c r="J52" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K52" s="22"/>
+    </row>
+    <row r="53" spans="1:11" ht="228" x14ac:dyDescent="0.2">
+      <c r="A53" s="57"/>
+      <c r="B53" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G53" s="22"/>
+      <c r="H53" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="I53" s="20"/>
+      <c r="J53" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K53" s="22"/>
+    </row>
+    <row r="54" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="57"/>
+      <c r="B54" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="56" t="s">
+      <c r="C54" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="62" t="s">
+      <c r="E54" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G54" s="22"/>
+      <c r="H54" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I54" s="20"/>
+      <c r="J54" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K54" s="22"/>
+    </row>
+    <row r="55" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="57"/>
+      <c r="B55" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E50" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="F50" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="G50" s="29"/>
-      <c r="H50" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="I50" s="27"/>
-      <c r="J50" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="K50" s="29"/>
-    </row>
-    <row r="51" spans="1:11" ht="228" x14ac:dyDescent="0.2">
-      <c r="A51" s="58"/>
-      <c r="B51" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="62" t="s">
+      <c r="E55" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G55" s="22"/>
+      <c r="H55" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="I55" s="20"/>
+      <c r="J55" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="K55" s="22"/>
+    </row>
+    <row r="56" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="57"/>
+      <c r="B56" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E51" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="F51" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="G51" s="29"/>
-      <c r="H51" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="I51" s="27"/>
-      <c r="J51" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="K51" s="29"/>
-    </row>
-    <row r="52" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="58"/>
-      <c r="B52" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F52" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="G52" s="29"/>
-      <c r="H52" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="I52" s="27"/>
-      <c r="J52" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="K52" s="29"/>
-    </row>
-    <row r="53" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="58"/>
-      <c r="B53" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="F53" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="G53" s="29"/>
-      <c r="H53" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="I53" s="27"/>
-      <c r="J53" s="9" t="s">
+      <c r="E56" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="K53" s="29"/>
-    </row>
-    <row r="54" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="58"/>
-      <c r="B54" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="F54" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="G54" s="29"/>
-      <c r="H54" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="I54" s="27"/>
-      <c r="J54" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="K54" s="29"/>
-    </row>
-    <row r="55" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C55" s="2"/>
-    </row>
-    <row r="56" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C56" s="2"/>
+      <c r="F56" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G56" s="22"/>
+      <c r="H56" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I56" s="20"/>
+      <c r="J56" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="K56" s="22"/>
     </row>
     <row r="57" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C57" s="2"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C58" s="2"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C59" s="2"/>
       <c r="D59" s="4"/>
-      <c r="E59" s="6"/>
+      <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C60" s="2"/>
       <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C61" s="2"/>
-      <c r="D61" s="5"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="6"/>
     </row>
     <row r="62" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C62" s="2"/>
@@ -7618,23 +8255,25 @@
     </row>
     <row r="63" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C63" s="2"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
+      <c r="D63" s="5"/>
     </row>
     <row r="64" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C64" s="2"/>
-      <c r="D64" s="3"/>
+      <c r="D64" s="4"/>
     </row>
     <row r="65" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C65" s="2"/>
-      <c r="D65" s="5"/>
+      <c r="D65" s="4"/>
       <c r="E65" s="4"/>
     </row>
     <row r="66" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C66" s="2"/>
+      <c r="D66" s="3"/>
     </row>
     <row r="67" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C67" s="2"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="4"/>
     </row>
     <row r="68" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C68" s="2"/>
@@ -10309,31 +10948,37 @@
     <row r="958" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C958" s="2"/>
     </row>
-    <row r="959" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C959" s="2"/>
     </row>
-    <row r="960" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C960" s="2"/>
+    </row>
+    <row r="961" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C961" s="2"/>
+    </row>
+    <row r="962" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C962" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A28"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A29:A36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="A29:A38"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
